--- a/results/new_results/vehicle_type_fuel_counts.xlsx
+++ b/results/new_results/vehicle_type_fuel_counts.xlsx
@@ -1,41 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/work/Projects/Fleeting_modeling_SAO/results/new_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D139F3FA-C202-544C-B5AB-A1A265F67B85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25517F6-5D68-AF4F-8438-69BF8AB1A9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$104</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="12">
   <si>
     <t>Vehicle Type</t>
   </si>
@@ -77,18 +65,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -132,12 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -443,19 +423,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -468,72 +451,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>16</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2010</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>262</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2011</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>2007</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>2008</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5">
-        <v>270</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>0.59347181008902083</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -541,16 +524,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>99.406528189910986</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -558,33 +541,33 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>262</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0.59347181008902083</v>
+        <v>0.7454739084132056</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -592,33 +575,33 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
-        <v>335</v>
+        <v>932</v>
       </c>
       <c r="E9">
-        <v>99.406528189910986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>99.254526091586797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
       <c r="B10">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>5.1829268292682924</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -626,33 +609,33 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>311</v>
+      </c>
+      <c r="E11">
+        <v>94.817073170731703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2015</v>
+      </c>
+      <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>0.7454739084132056</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2013</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
       <c r="D12">
-        <v>932</v>
+        <v>16</v>
       </c>
       <c r="E12">
-        <v>99.254526091586797</v>
+        <v>1.812004530011325</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -660,16 +643,16 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>867</v>
       </c>
       <c r="E13">
-        <v>5.1829268292682924</v>
+        <v>98.187995469988678</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -677,16 +660,16 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14">
-        <v>311</v>
+        <v>7</v>
       </c>
       <c r="E14">
-        <v>94.817073170731703</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -694,33 +677,33 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <v>2.0338983050847461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>2015</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
       <c r="D16">
-        <v>867</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>97.966101694915253</v>
+        <v>1.428571428571429</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -728,33 +711,33 @@
         <v>5</v>
       </c>
       <c r="B17">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17">
+        <v>552</v>
+      </c>
+      <c r="E17">
+        <v>98.571428571428584</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>2017</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
       <c r="D18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -762,33 +745,33 @@
         <v>5</v>
       </c>
       <c r="B19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>666</v>
+      </c>
+      <c r="E19">
+        <v>98.666666666666671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>2020</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <v>1.428571428571429</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>2018</v>
-      </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
       <c r="D20">
-        <v>552</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>98.571428571428584</v>
+        <v>1.1173184357541901</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -796,16 +779,16 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="E21">
-        <v>1.333333333333333</v>
+        <v>98.882681564245814</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -813,16 +796,16 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22">
-        <v>666</v>
+        <v>253</v>
       </c>
       <c r="E22">
-        <v>98.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -830,16 +813,16 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23">
-        <v>1.1173184357541901</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -847,33 +830,33 @@
         <v>5</v>
       </c>
       <c r="B24">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C24" t="s">
         <v>6</v>
       </c>
       <c r="D24">
-        <v>177</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>98.882681564245814</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
-        <v>253</v>
+        <v>31</v>
       </c>
       <c r="E25">
-        <v>100</v>
+        <v>1.102026306434412</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -881,16 +864,16 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2782</v>
       </c>
       <c r="E26">
-        <v>100</v>
+        <v>98.897973693565589</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -898,13 +881,13 @@
         <v>5</v>
       </c>
       <c r="B27">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -912,53 +895,53 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B28">
-        <v>2024</v>
+        <v>2008</v>
       </c>
       <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>54</v>
+      </c>
+      <c r="E28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29">
+        <v>2009</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D28">
-        <v>31</v>
-      </c>
-      <c r="E28">
-        <v>1.102026306434412</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29">
-        <v>2024</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
       <c r="D29">
-        <v>2782</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>98.897973693565589</v>
+        <v>34.666666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>2025</v>
+        <v>2009</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="E30">
-        <v>100</v>
+        <v>65.333333333333329</v>
       </c>
     </row>
     <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -966,33 +949,33 @@
         <v>8</v>
       </c>
       <c r="B31">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>15.38461538461539</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
       <c r="B32">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="E32">
-        <v>36.363636363636367</v>
+        <v>84.615384615384613</v>
       </c>
     </row>
     <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
@@ -1000,67 +983,67 @@
         <v>8</v>
       </c>
       <c r="B33">
-        <v>2006</v>
+        <v>2011</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E33">
-        <v>63.636363636363633</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.724832214765101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
       <c r="B34">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="E34">
-        <v>24.137931034482762</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+        <v>91.275167785234899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
       <c r="B35">
-        <v>2007</v>
+        <v>2012</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>75.862068965517238</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
       <c r="B36">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C36" t="s">
         <v>7</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>1.8181818181818179</v>
+        <v>5.4216867469879517</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1068,33 +1051,33 @@
         <v>8</v>
       </c>
       <c r="B37">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="D37">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="E37">
-        <v>98.181818181818187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>94.578313253012041</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="C38" t="s">
         <v>7</v>
       </c>
       <c r="D38">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="E38">
-        <v>34.666666666666671</v>
+        <v>9.1954022988505741</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1102,24 +1085,24 @@
         <v>8</v>
       </c>
       <c r="B39">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="C39" t="s">
         <v>6</v>
       </c>
       <c r="D39">
-        <v>147</v>
+        <v>316</v>
       </c>
       <c r="E39">
-        <v>65.333333333333329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90.804597701149419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1128,7 +1111,7 @@
         <v>6</v>
       </c>
       <c r="E40">
-        <v>15.38461538461539</v>
+        <v>6.0606060606060614</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -1136,33 +1119,33 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C41" t="s">
         <v>6</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="E41">
-        <v>84.615384615384613</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93.939393939393938</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C42" t="s">
         <v>7</v>
       </c>
       <c r="D42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42">
-        <v>8.724832214765101</v>
+        <v>6.8965517241379306</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1170,33 +1153,33 @@
         <v>8</v>
       </c>
       <c r="B43">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="D43">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="E43">
-        <v>91.275167785234899</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+        <v>93.103448275862064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="E44">
-        <v>100</v>
+        <v>35.9375</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -1204,33 +1187,33 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>2013</v>
+        <v>2019</v>
       </c>
       <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>164</v>
+      </c>
+      <c r="E45">
+        <v>64.0625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D45">
-        <v>9</v>
-      </c>
-      <c r="E45">
-        <v>5.4216867469879517</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46">
-        <v>2013</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
       <c r="D46">
-        <v>157</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>94.578313253012041</v>
+        <v>3.0769230769230771</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1238,33 +1221,33 @@
         <v>8</v>
       </c>
       <c r="B47">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47">
+        <v>63</v>
+      </c>
+      <c r="E47">
+        <v>96.92307692307692</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48">
+        <v>2021</v>
+      </c>
+      <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D47">
-        <v>32</v>
-      </c>
-      <c r="E47">
-        <v>9.1954022988505741</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>2014</v>
-      </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
       <c r="D48">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="E48">
-        <v>90.804597701149419</v>
+        <v>5.6179775280898872</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,16 +1255,16 @@
         <v>8</v>
       </c>
       <c r="B49">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D49">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E49">
-        <v>6.0606060606060614</v>
+        <v>94.382022471910105</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -1289,16 +1272,16 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>2015</v>
+        <v>2022</v>
       </c>
       <c r="C50" t="s">
         <v>6</v>
       </c>
       <c r="D50">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E50">
-        <v>93.939393939393938</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -1306,33 +1289,33 @@
         <v>8</v>
       </c>
       <c r="B51">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52">
+        <v>2024</v>
+      </c>
+      <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D51">
-        <v>14</v>
-      </c>
-      <c r="E51">
-        <v>6.8965517241379306</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52">
-        <v>2018</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
       <c r="D52">
-        <v>189</v>
+        <v>6</v>
       </c>
       <c r="E52">
-        <v>93.103448275862064</v>
+        <v>1.4423076923076921</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -1340,16 +1323,16 @@
         <v>8</v>
       </c>
       <c r="B53">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>92</v>
+        <v>410</v>
       </c>
       <c r="E53">
-        <v>35.9375</v>
+        <v>98.557692307692307</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -1357,98 +1340,98 @@
         <v>8</v>
       </c>
       <c r="B54">
-        <v>2019</v>
+        <v>2025</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54">
-        <v>164</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>64.0625</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B55">
-        <v>2020</v>
+        <v>2008</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>154</v>
       </c>
       <c r="E55">
-        <v>3.0769230769230771</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B56">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C56" t="s">
         <v>6</v>
       </c>
       <c r="D56">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="E56">
-        <v>96.92307692307692</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B57">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="E57">
-        <v>5.6179775280898872</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B58">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C58" t="s">
         <v>6</v>
       </c>
       <c r="D58">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="E58">
-        <v>94.382022471910105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B59">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C59" t="s">
         <v>6</v>
       </c>
       <c r="D59">
-        <v>121</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -1456,16 +1439,16 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B60">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="C60" t="s">
         <v>6</v>
       </c>
       <c r="D60">
-        <v>3</v>
+        <v>718</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -1473,50 +1456,50 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B61">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>6</v>
+        <v>846</v>
       </c>
       <c r="E61">
-        <v>1.4423076923076921</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B62">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62">
-        <v>410</v>
+        <v>544</v>
       </c>
       <c r="E62">
-        <v>98.557692307692307</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B63">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="C63" t="s">
         <v>6</v>
       </c>
       <c r="D63">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -1527,13 +1510,13 @@
         <v>9</v>
       </c>
       <c r="B64">
-        <v>2008</v>
+        <v>2017</v>
       </c>
       <c r="C64" t="s">
         <v>6</v>
       </c>
       <c r="D64">
-        <v>154</v>
+        <v>13</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -1544,13 +1527,13 @@
         <v>9</v>
       </c>
       <c r="B65">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="C65" t="s">
         <v>6</v>
       </c>
       <c r="D65">
-        <v>93</v>
+        <v>587</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -1561,13 +1544,13 @@
         <v>9</v>
       </c>
       <c r="B66">
-        <v>2010</v>
+        <v>2019</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
       </c>
       <c r="D66">
-        <v>70</v>
+        <v>390</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -1578,13 +1561,13 @@
         <v>9</v>
       </c>
       <c r="B67">
-        <v>2011</v>
+        <v>2020</v>
       </c>
       <c r="C67" t="s">
         <v>6</v>
       </c>
       <c r="D67">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -1595,13 +1578,13 @@
         <v>9</v>
       </c>
       <c r="B68">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C68" t="s">
         <v>6</v>
       </c>
       <c r="D68">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -1612,13 +1595,13 @@
         <v>9</v>
       </c>
       <c r="B69">
-        <v>2013</v>
+        <v>2022</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
       </c>
       <c r="D69">
-        <v>718</v>
+        <v>1686</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -1629,13 +1612,13 @@
         <v>9</v>
       </c>
       <c r="B70">
-        <v>2014</v>
+        <v>2023</v>
       </c>
       <c r="C70" t="s">
         <v>6</v>
       </c>
       <c r="D70">
-        <v>846</v>
+        <v>168</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -1646,13 +1629,13 @@
         <v>9</v>
       </c>
       <c r="B71">
-        <v>2015</v>
+        <v>2024</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71">
-        <v>544</v>
+        <v>946</v>
       </c>
       <c r="E71">
         <v>100</v>
@@ -1663,13 +1646,13 @@
         <v>9</v>
       </c>
       <c r="B72">
-        <v>2016</v>
+        <v>2025</v>
       </c>
       <c r="C72" t="s">
         <v>6</v>
       </c>
       <c r="D72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -1677,67 +1660,67 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B73">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E73">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B74">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>587</v>
+        <v>1</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>4.3478260869565224</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B75">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="E75">
-        <v>100</v>
+        <v>95.652173913043484</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C76" t="s">
         <v>6</v>
       </c>
       <c r="D76">
-        <v>211</v>
+        <v>1</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -1745,16 +1728,16 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B77">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C77" t="s">
         <v>6</v>
       </c>
       <c r="D77">
-        <v>203</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -1762,16 +1745,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B78">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="C78" t="s">
         <v>6</v>
       </c>
       <c r="D78">
-        <v>1686</v>
+        <v>185</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -1779,16 +1762,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B79">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
       </c>
       <c r="D79">
-        <v>168</v>
+        <v>15</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -1796,16 +1779,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B80">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="C80" t="s">
         <v>6</v>
       </c>
       <c r="D80">
-        <v>946</v>
+        <v>1</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -1813,16 +1796,16 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B81">
-        <v>2025</v>
+        <v>2018</v>
       </c>
       <c r="C81" t="s">
         <v>6</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -1833,13 +1816,13 @@
         <v>10</v>
       </c>
       <c r="B82">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -1850,16 +1833,16 @@
         <v>10</v>
       </c>
       <c r="B83">
-        <v>2009</v>
+        <v>2020</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E83">
-        <v>4.3478260869565224</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -1867,16 +1850,16 @@
         <v>10</v>
       </c>
       <c r="B84">
-        <v>2009</v>
+        <v>2021</v>
       </c>
       <c r="C84" t="s">
         <v>6</v>
       </c>
       <c r="D84">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E84">
-        <v>95.652173913043484</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -1884,13 +1867,13 @@
         <v>10</v>
       </c>
       <c r="B85">
-        <v>2010</v>
+        <v>2022</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -1901,13 +1884,13 @@
         <v>10</v>
       </c>
       <c r="B86">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="C86" t="s">
         <v>6</v>
       </c>
       <c r="D86">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -1915,16 +1898,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B87">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -1932,16 +1915,16 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B88">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="C88" t="s">
         <v>6</v>
       </c>
       <c r="D88">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -1949,16 +1932,16 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B89">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="C89" t="s">
         <v>6</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -1966,16 +1949,16 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B90">
-        <v>2018</v>
+        <v>2011</v>
       </c>
       <c r="C90" t="s">
         <v>6</v>
       </c>
       <c r="D90">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -1983,16 +1966,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B91">
-        <v>2019</v>
+        <v>2012</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
       </c>
       <c r="D91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -2000,16 +1983,16 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="C92" t="s">
         <v>6</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>1118</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -2017,16 +2000,16 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B93">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="C93" t="s">
         <v>6</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>439</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -2034,16 +2017,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94">
-        <v>2022</v>
+        <v>2015</v>
       </c>
       <c r="C94" t="s">
         <v>6</v>
       </c>
       <c r="D94">
-        <v>181</v>
+        <v>519</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -2051,33 +2034,33 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B95">
-        <v>2023</v>
+        <v>2016</v>
       </c>
       <c r="C95" t="s">
         <v>6</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E95">
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>11</v>
       </c>
       <c r="B96">
-        <v>2006</v>
+        <v>2017</v>
       </c>
       <c r="C96" t="s">
         <v>6</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -2088,13 +2071,13 @@
         <v>11</v>
       </c>
       <c r="B97">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C97" t="s">
         <v>6</v>
       </c>
       <c r="D97">
-        <v>198</v>
+        <v>1043</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -2105,13 +2088,13 @@
         <v>11</v>
       </c>
       <c r="B98">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C98" t="s">
         <v>6</v>
       </c>
       <c r="D98">
-        <v>6</v>
+        <v>373</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -2122,13 +2105,13 @@
         <v>11</v>
       </c>
       <c r="B99">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="C99" t="s">
         <v>6</v>
       </c>
       <c r="D99">
-        <v>85</v>
+        <v>465</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -2139,13 +2122,13 @@
         <v>11</v>
       </c>
       <c r="B100">
-        <v>2011</v>
+        <v>2021</v>
       </c>
       <c r="C100" t="s">
         <v>6</v>
       </c>
       <c r="D100">
-        <v>108</v>
+        <v>388</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -2156,13 +2139,13 @@
         <v>11</v>
       </c>
       <c r="B101">
-        <v>2012</v>
+        <v>2022</v>
       </c>
       <c r="C101" t="s">
         <v>6</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>1402</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -2173,13 +2156,13 @@
         <v>11</v>
       </c>
       <c r="B102">
-        <v>2013</v>
+        <v>2023</v>
       </c>
       <c r="C102" t="s">
         <v>6</v>
       </c>
       <c r="D102">
-        <v>1118</v>
+        <v>441</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -2190,13 +2173,13 @@
         <v>11</v>
       </c>
       <c r="B103">
-        <v>2014</v>
+        <v>2024</v>
       </c>
       <c r="C103" t="s">
         <v>6</v>
       </c>
       <c r="D103">
-        <v>439</v>
+        <v>1220</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -2207,210 +2190,23 @@
         <v>11</v>
       </c>
       <c r="B104">
-        <v>2015</v>
+        <v>2025</v>
       </c>
       <c r="C104" t="s">
         <v>6</v>
       </c>
       <c r="D104">
-        <v>519</v>
+        <v>1</v>
       </c>
       <c r="E104">
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105">
-        <v>2016</v>
-      </c>
-      <c r="C105" t="s">
-        <v>6</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106">
-        <v>2017</v>
-      </c>
-      <c r="C106" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106">
-        <v>29</v>
-      </c>
-      <c r="E106">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107">
-        <v>2018</v>
-      </c>
-      <c r="C107" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107">
-        <v>1043</v>
-      </c>
-      <c r="E107">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108">
-        <v>2019</v>
-      </c>
-      <c r="C108" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108">
-        <v>373</v>
-      </c>
-      <c r="E108">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109">
-        <v>2020</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109">
-        <v>465</v>
-      </c>
-      <c r="E109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110">
-        <v>2021</v>
-      </c>
-      <c r="C110" t="s">
-        <v>6</v>
-      </c>
-      <c r="D110">
-        <v>388</v>
-      </c>
-      <c r="E110">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111">
-        <v>2022</v>
-      </c>
-      <c r="C111" t="s">
-        <v>6</v>
-      </c>
-      <c r="D111">
-        <v>1402</v>
-      </c>
-      <c r="E111">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112">
-        <v>2023</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-      <c r="D112">
-        <v>441</v>
-      </c>
-      <c r="E112">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113">
-        <v>2024</v>
-      </c>
-      <c r="C113" t="s">
-        <v>6</v>
-      </c>
-      <c r="D113">
-        <v>1220</v>
-      </c>
-      <c r="E113">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114">
-        <v>2025</v>
-      </c>
-      <c r="C114" t="s">
-        <v>6</v>
-      </c>
-      <c r="D114">
-        <v>1</v>
-      </c>
-      <c r="E114">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E114" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
+  <autoFilter ref="A1:E104" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="2008"/>
-        <filter val="2009"/>
-        <filter val="2010"/>
-        <filter val="2011"/>
-        <filter val="2012"/>
-        <filter val="2013"/>
-        <filter val="2014"/>
-        <filter val="2015"/>
-        <filter val="2016"/>
-        <filter val="2017"/>
-        <filter val="2018"/>
-        <filter val="2019"/>
-        <filter val="2020"/>
-        <filter val="2021"/>
-        <filter val="2022"/>
-        <filter val="2023"/>
-        <filter val="2024"/>
-        <filter val="2025"/>
+        <filter val="Gasoline"/>
       </filters>
     </filterColumn>
   </autoFilter>
